--- a/medicine/Mort/Cimetière_de_Kensal_Green/Cimetière_de_Kensal_Green.xlsx
+++ b/medicine/Mort/Cimetière_de_Kensal_Green/Cimetière_de_Kensal_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensal_Green</t>
+          <t>Cimetière_de_Kensal_Green</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Kensal Green (en anglais Kensal Green Cemetery) est un cimetière anglican[1] britannique situé à Londres, dans le district royal de Kensington et Chelsea. Il fait partie des sept grands cimetières historiques de Londres (les fameux Magnificent Seven).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Kensal Green (en anglais Kensal Green Cemetery) est un cimetière anglican britannique situé à Londres, dans le district royal de Kensington et Chelsea. Il fait partie des sept grands cimetières historiques de Londres (les fameux Magnificent Seven).
 Inauguré en 1832 sur le modèle du cimetière du Père-Lachaise à Paris, il comporte plus de 65 000 tombes, mausolées, caveaux et catacombes qui renferment environ 250 000 dépouilles dont des dizaines de personnalités.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensal_Green</t>
+          <t>Cimetière_de_Kensal_Green</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière s'étend sur 29 hectares à l'extrémité nord du district de Kensington et Chelsea. Il est limité par une branche du Grand Union Canal au sud et par Harrow Road au nord, et est prolongé à l'est par le cimetière catholique de Sainte Marie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensal_Green</t>
+          <t>Cimetière_de_Kensal_Green</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kensal_Green</t>
+          <t>Cimetière_de_Kensal_Green</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Liste des personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Babbage (1791-1871), mathématicien et précurseur de l'informatique
 George Birkbeck (1776-1841), docteur, professeur et fondateur de Birkbeck College
